--- a/data/trans_dic/P15_3-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_3-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con familiares no convivientes con COVID-19</t>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>7,53%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,33%</t>
+          <t>30,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,52%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>10,73%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,21%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>31,47%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 14,04</t>
+          <t>4,19; 13,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,41</t>
+          <t>3,37; 10,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,54; 28,91</t>
+          <t>17,2; 31,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,04; 34,58</t>
+          <t>21,5; 37,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 15,13</t>
+          <t>8,16; 17,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,55; 13,15</t>
+          <t>7,23; 15,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,34; 22,89</t>
+          <t>12,39; 22,31</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 36,28</t>
+          <t>26,47; 38,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,47; 13,57</t>
+          <t>7,06; 13,16</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,26</t>
+          <t>6,31; 12,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,32</t>
+          <t>16,36; 24,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>25,91; 33,74</t>
+          <t>26,41; 37,19</t>
         </is>
       </c>
     </row>
@@ -796,62 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>4,82%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,97%</t>
+          <t>17,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>28,41%</t>
+          <t>30,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>20,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,6%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>17,95%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>30,2%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,06; 9,12</t>
+          <t>3,42; 12,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,23; 7,82</t>
+          <t>1,88; 10,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11,27; 21,66</t>
+          <t>11,5; 24,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,33; 35,41</t>
+          <t>23,21; 40,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,34</t>
+          <t>5,17; 14,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,88</t>
+          <t>2,72; 10,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,55; 25,63</t>
+          <t>14,9; 27,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,7; 37,95</t>
+          <t>23,06; 36,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,37; 10,1</t>
+          <t>5,34; 11,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,24</t>
+          <t>3,01; 8,18</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 21,62</t>
+          <t>14,56; 24,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,43; 34,77</t>
+          <t>24,91; 36,71</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,93%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>20,99%</t>
+          <t>13,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,95%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>18,79%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>34,43%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 20,81</t>
+          <t>2,35; 24,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,01; 33,91</t>
+          <t>8,06; 45,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,22; 45,9</t>
+          <t>14,28; 59,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 21,0</t>
+          <t>0,0; 23,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 12,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,35; 33,32</t>
+          <t>5,17; 28,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,89; 41,56</t>
+          <t>18,93; 50,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,72</t>
+          <t>2,93; 19,42</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>14,7; 30,37</t>
+          <t>9,78; 30,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>22,78; 41,03</t>
+          <t>21,39; 48,03</t>
         </is>
       </c>
     </row>
@@ -1076,52 +1077,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>21,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>28,97%</t>
+          <t>31,11%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>10,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>18,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>30,69%</t>
+          <t>31,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1132,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>31,26%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,7</t>
+          <t>4,73; 10,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,3</t>
+          <t>3,03; 7,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,68</t>
+          <t>16,96; 26,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,68; 33,18</t>
+          <t>25,65; 37,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,21; 12,71</t>
+          <t>7,33; 13,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,42</t>
+          <t>5,47; 11,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,01; 22,26</t>
+          <t>14,13; 21,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,73; 34,79</t>
+          <t>27,04; 36,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,12</t>
+          <t>7,08; 11,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,43</t>
+          <t>4,8; 8,62</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 22,03</t>
+          <t>16,98; 22,73</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>26,78; 32,63</t>
+          <t>28,12; 35,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1216,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con familiares no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27551</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>26968</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>88354</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>114898</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>52766</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>56835</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>70775</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>133198</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>80316</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>83803</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>159129</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>248096</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15317; 47708</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14483; 46637</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>62970; 114474</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>81858; 144152</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>35535; 75511</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36807; 81298</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>52160; 93926</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>107848; 158886</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>56587; 105396</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>59206; 113605</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>128789; 194738</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>208205; 293169</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21282</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17334</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55191</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>99447</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>31523</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>24296</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>69302</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>99132</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>52805</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>41629</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>124493</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>198580</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>10406; 39372</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6743; 36125</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36602; 79311</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>74869; 130697</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>18083; 50863</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11584; 45051</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>50434; 92974</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>77265; 122679</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34985; 74231</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23603; 64214</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>95629; 158176</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>163786; 241396</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7852</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>18928</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31141</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5782</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11359</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>26746</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>13634</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>30287</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>57888</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1993; 21137</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6416; 36176</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>12223; 51221</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 19558</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4214; 22909</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>15627; 41720</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4902; 32516</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15763; 49129</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35971; 80755</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>146.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>237.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>56685</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>44301</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>162473</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>245486</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>90070</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>81131</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>151436</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>259077</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>146755</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>125433</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>313908</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>504564</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>35758; 82549</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26988; 69278</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>129578; 201945</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>202370; 294718</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63662; 115181</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>56675; 115099</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>118851; 183387</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>223111; 299946</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114861; 185198</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92573; 166087</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>272593; 364929</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>453898; 566420</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>